--- a/config/nssar1o1c/patch.xlsx
+++ b/config/nssar1o1c/patch.xlsx
@@ -25,7 +25,7 @@
     <t>TI</t>
   </si>
   <si>
-    <t>F_in_center_1</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -76,12 +76,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -398,11 +401,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -428,12 +431,10 @@
       <c r="E2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>1000000</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
